--- a/TR BOP Maintenance/Chart.xlsx
+++ b/TR BOP Maintenance/Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="92">
   <si>
     <t>ALSTOM 38kV Dead Tank Breakers</t>
   </si>
@@ -235,13 +235,70 @@
   </si>
   <si>
     <t>Caliberate meter</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>3 month</t>
+  </si>
+  <si>
+    <t>6 month</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>IB-DTO9-F1</t>
+  </si>
+  <si>
+    <t>ID-DT12-FK</t>
+  </si>
+  <si>
+    <t>IB-AA26-001E</t>
+  </si>
+  <si>
+    <t>IB-AA26-301L</t>
+  </si>
+  <si>
+    <t>Alstom manual 11622 4th edition</t>
+  </si>
+  <si>
+    <t>O&amp;M manual for ATC-300 2-Position</t>
+  </si>
+  <si>
+    <t>Instruction Manual IL-VEFS-R4</t>
+  </si>
+  <si>
+    <t>Instruction Manual IL-VEFS-R5</t>
+  </si>
+  <si>
+    <t>Instruction Manual IL-VEFS-R6</t>
+  </si>
+  <si>
+    <t>Instruction Manual IL-VEFS-R7</t>
+  </si>
+  <si>
+    <t>ANSi/NETA MTS-2011 section 7.9.2</t>
+  </si>
+  <si>
+    <t>See monthly inspection checklist</t>
+  </si>
+  <si>
+    <t>See quarterly inspection checklist</t>
+  </si>
+  <si>
+    <t>See annual inspection checklist</t>
+  </si>
+  <si>
+    <t>AT10.1 series operation manual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +314,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +332,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,12 +366,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -298,6 +377,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,665 +692,3249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A130"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="9.140625" style="6"/>
+    <col min="25" max="25" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="X12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="X13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="X27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="X28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
+      <c r="I35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="I36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F41" s="8"/>
+      <c r="I41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F42" s="8"/>
+      <c r="I42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F43" s="8"/>
+      <c r="I43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X43" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F44" s="8"/>
+      <c r="I44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="Y47" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F48" s="8"/>
+      <c r="I48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y48" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F49" s="8"/>
+      <c r="I49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y49" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="Y52" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F53" s="8"/>
+      <c r="I53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F54" s="8"/>
+      <c r="I54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y54" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y57" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y59" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="B61" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X62" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I63" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X64" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y66" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y67" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y69" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X73" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X76" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X82" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y83" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W86" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X86" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y87" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W90" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X90" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I91" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X91" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y91" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X94" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y95" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X98" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X99" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y99" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X102" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y103" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X106" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S107" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X107" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y107" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X110" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S111" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X111" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y111" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X114" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S115" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X115" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y115" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X118" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I119" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S119" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X119" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y119" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y121" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y122" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="9"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X123" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y123" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y125" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="7"/>
+      <c r="H127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V127" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X127" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="B129" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X130" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
